--- a/individual_results/avey/22.xlsx
+++ b/individual_results/avey/22.xlsx
@@ -703,7 +703,7 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9049495058460971</v>
+        <v>0.7984848580994974</v>
       </c>
     </row>
     <row r="7">
